--- a/public/Nominatif Pendaftaran PTSL Desa Mundurejo.xlsx
+++ b/public/Nominatif Pendaftaran PTSL Desa Mundurejo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>No Nominatif</t>
   </si>
@@ -26,12 +26,6 @@
     <t>No SPPT</t>
   </si>
   <si>
-    <t>No Pengumuman</t>
-  </si>
-  <si>
-    <t>Sudah Pengumuman</t>
-  </si>
-  <si>
     <t>Tanggal Pendataan</t>
   </si>
   <si>
@@ -236,22 +230,100 @@
     <t>Koordinator</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>01234</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>3509072008000002</t>
+  </si>
+  <si>
+    <t>SUDRAJAD HADI SAPUTRA</t>
+  </si>
+  <si>
+    <t>JEMBER</t>
+  </si>
+  <si>
+    <t>20-08-2000</t>
+  </si>
+  <si>
+    <t>JALAN BENDO GANG 3 NO. 36 DESA SIDOMEKAR KECAMATAN SEMBORO</t>
+  </si>
+  <si>
     <t>ISLAM</t>
   </si>
   <si>
+    <t>MAHASISWA</t>
+  </si>
+  <si>
+    <t>3509072008000001</t>
+  </si>
+  <si>
+    <t>SUDRAJAD HADI SAPUTRA 2</t>
+  </si>
+  <si>
+    <t>JEMBER 2</t>
+  </si>
+  <si>
+    <t>JALAN BENDO GANG 3 NO. 36 DESA SIDOMEKAR KECAMATAN SEMBORO 2</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>BLOGMUNDU</t>
+  </si>
+  <si>
     <t>MUNDUREJO</t>
   </si>
   <si>
     <t>UMBULSARI</t>
   </si>
   <si>
+    <t>S. II</t>
+  </si>
+  <si>
     <t>YASAN</t>
   </si>
   <si>
     <t>PEKARANGAN</t>
   </si>
   <si>
+    <t>JALAN DESA</t>
+  </si>
+  <si>
+    <t>TANAH ORANG</t>
+  </si>
+  <si>
+    <t>ORANG 1</t>
+  </si>
+  <si>
+    <t>ORANG 2</t>
+  </si>
+  <si>
+    <t>JUAL BELI</t>
+  </si>
+  <si>
+    <t>SURAT WARIS 3</t>
+  </si>
+  <si>
     <t>EDI SANTOSO</t>
+  </si>
+  <si>
+    <t>SOFYAN HADI</t>
   </si>
 </sst>
 </file>
@@ -587,7 +659,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BU2"/>
+  <dimension ref="A1:BS2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +667,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:71">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,90 +881,176 @@
       <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+    </row>
+    <row r="2" spans="1:71">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:73">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2">
+        <v>2347</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2">
+        <v>42.16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>82</v>
+      </c>
       <c r="T2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2">
+        <v>2000</v>
+      </c>
+      <c r="AF2">
+        <v>123</v>
+      </c>
+      <c r="AG2">
+        <v>123</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK2">
+        <v>900</v>
       </c>
       <c r="AL2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
+        <v>95</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2">
+        <v>2000</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR2">
+        <v>2010</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW2">
+        <v>2023</v>
+      </c>
       <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
+      <c r="AY2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>98</v>
+      </c>
       <c r="BA2"/>
-      <c r="BB2"/>
+      <c r="BB2" t="s">
+        <v>100</v>
+      </c>
       <c r="BC2"/>
       <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
+      <c r="BE2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>101</v>
+      </c>
       <c r="BG2"/>
-      <c r="BH2" t="s">
-        <v>78</v>
-      </c>
+      <c r="BH2"/>
       <c r="BI2"/>
       <c r="BJ2"/>
       <c r="BK2"/>
@@ -903,9 +1061,9 @@
       <c r="BP2"/>
       <c r="BQ2"/>
       <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
+      <c r="BS2" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
